--- a/Gradle-课程大纲.xlsx
+++ b/Gradle-课程大纲.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Gradle课程教学大纲</t>
   </si>
@@ -381,12 +381,36 @@
     <t>主要介绍Gradle的安装和使用及在IDE中使用Gradle。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>包装器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>实战篇</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本原理篇</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加仓库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制插件</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一步意思</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -444,6 +468,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -628,7 +659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -690,6 +721,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,6 +750,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,39 +778,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1092,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD47"/>
+  <dimension ref="A1:XFD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1109,20 +1141,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -1142,10 +1174,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A4" s="23">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1154,26 +1186,26 @@
       <c r="D4" s="7">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A6" s="23">
+      <c r="A6" s="30">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1182,37 +1214,37 @@
       <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A9" s="23">
+      <c r="A9" s="30">
         <v>3</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1221,107 +1253,107 @@
       <c r="D9" s="7">
         <v>5</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="41" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="7">
         <v>10</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="7">
         <v>10</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="7">
         <v>3</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1">
-      <c r="A13" s="23">
+      <c r="A13" s="30">
         <v>4</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="30">
         <v>6</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="43"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="7">
         <v>3</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="41" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="7">
         <v>10</v>
       </c>
-      <c r="E16" s="33"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:16384" ht="35.1" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="7">
         <v>3</v>
       </c>
-      <c r="E17" s="33"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A18" s="23">
+      <c r="A18" s="30">
         <v>5</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1330,52 +1362,52 @@
       <c r="D18" s="7">
         <v>5</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="41" t="s">
         <v>19</v>
       </c>
       <c r="XFD18"/>
     </row>
     <row r="19" spans="1:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="7">
         <v>3</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="43"/>
       <c r="XFD19"/>
     </row>
     <row r="20" spans="1:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="7">
         <v>3</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="43"/>
       <c r="XFD20"/>
     </row>
     <row r="21" spans="1:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="7">
         <v>5</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="43"/>
       <c r="XFD21"/>
     </row>
     <row r="22" spans="1:16384" ht="35.1" customHeight="1">
-      <c r="A22" s="23">
+      <c r="A22" s="30">
         <v>6</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1384,37 +1416,37 @@
       <c r="D22" s="7">
         <v>5</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="41" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:16384" ht="35.1" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="7">
         <v>3</v>
       </c>
-      <c r="E23" s="33"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="1:16384" ht="35.1" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="7">
         <v>3</v>
       </c>
-      <c r="E24" s="33"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A25" s="23">
+      <c r="A25" s="30">
         <v>7</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1423,40 +1455,40 @@
       <c r="D25" s="7">
         <v>3</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="41" t="s">
         <v>29</v>
       </c>
       <c r="XFD25"/>
     </row>
     <row r="26" spans="1:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="7">
         <v>10</v>
       </c>
-      <c r="E26" s="33"/>
+      <c r="E26" s="43"/>
       <c r="XFD26"/>
     </row>
     <row r="27" spans="1:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="7">
         <v>10</v>
       </c>
-      <c r="E27" s="33"/>
+      <c r="E27" s="43"/>
       <c r="XFD27"/>
     </row>
     <row r="28" spans="1:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A28" s="23">
+      <c r="A28" s="30">
         <v>8</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1465,33 +1497,33 @@
       <c r="D28" s="7">
         <v>3</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="41" t="s">
         <v>34</v>
       </c>
       <c r="XFD28"/>
     </row>
     <row r="29" spans="1:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="7">
         <v>5</v>
       </c>
-      <c r="E29" s="33"/>
+      <c r="E29" s="43"/>
       <c r="XFD29"/>
     </row>
     <row r="30" spans="1:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="7">
         <v>3</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="43"/>
       <c r="XFD30"/>
     </row>
     <row r="31" spans="1:16384" ht="48" customHeight="1">
@@ -17917,140 +17949,165 @@
       </c>
     </row>
     <row r="34" spans="1:5 16384:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A34" s="23">
+      <c r="A34" s="30">
         <v>11</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="30" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="41" t="s">
         <v>47</v>
       </c>
       <c r="XFD34"/>
     </row>
     <row r="35" spans="1:5 16384:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="33"/>
+      <c r="E35" s="43"/>
       <c r="XFD35"/>
     </row>
     <row r="36" spans="1:5 16384:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="7"/>
-      <c r="E36" s="33"/>
+      <c r="E36" s="43"/>
       <c r="XFD36"/>
     </row>
     <row r="37" spans="1:5 16384:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="33"/>
+      <c r="E37" s="43"/>
       <c r="XFD37"/>
     </row>
     <row r="38" spans="1:5 16384:16384" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="33"/>
+      <c r="E38" s="43"/>
       <c r="XFD38"/>
     </row>
     <row r="39" spans="1:5 16384:16384" ht="18" customHeight="1">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="13">
         <v>155</v>
       </c>
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5 16384:16384" ht="16.5" customHeight="1">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" spans="1:5 16384:16384" ht="16.5" customHeight="1">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
     </row>
     <row r="42" spans="1:5 16384:16384" ht="16.5" customHeight="1">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" spans="1:5 16384:16384" ht="16.5" customHeight="1">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" spans="1:5 16384:16384" ht="17.25" customHeight="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
     </row>
     <row r="45" spans="1:5 16384:16384" ht="17.25" customHeight="1">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:5 16384:16384" ht="17.25" customHeight="1">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
     </row>
     <row r="47" spans="1:5 16384:16384" ht="17.25" customHeight="1">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="C53" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="C54" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A40:E47"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
@@ -18067,15 +18124,14 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A40:E47"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A34:A38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
